--- a/AnalysisSW/01.Manual/사용한ppt/RSMP Cutting 종류(원본 Doc-01.사양서-09.CV관련).xlsx
+++ b/AnalysisSW/01.Manual/사용한ppt/RSMP Cutting 종류(원본 Doc-01.사양서-09.CV관련).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ezdiatech\Doc\01.사양서\09.CV관련\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Ezdiatech\OpenDoc\AnalysisSW\01.Manual\사용한ppt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79283BE4-0AD7-4E34-96EF-B431809D46F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2978178-25B5-4D82-B3D5-77EE2980CB78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54EB7701-8F75-49F4-B00F-68DB11A133D0}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{54EB7701-8F75-49F4-B00F-68DB11A133D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="42">
   <si>
     <t>Marker1</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -132,10 +132,6 @@
   </si>
   <si>
     <t xml:space="preserve">-RSMP 하나씩 Pixel 값을 나열후 상하위 Cut 아래/위 Cut </t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>N/A</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -206,7 +202,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="176" formatCode="0.0%"/>
     <numFmt numFmtId="177" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="#,###&quot;개&quot;"/>
+    <numFmt numFmtId="178" formatCode="#,###&quot;개&quot;"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -480,6 +476,57 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -500,57 +547,6 @@
     </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="7" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2020,7 +2016,7 @@
   <dimension ref="B2:AK57"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AX21" sqref="AX21"/>
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2075,7 +2071,7 @@
     </row>
     <row r="5" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B5" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="2:37" x14ac:dyDescent="0.3">
@@ -2085,7 +2081,7 @@
     </row>
     <row r="7" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B7" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="2:37" ht="7.5" customHeight="1" x14ac:dyDescent="0.3">
@@ -2095,7 +2091,7 @@
       <c r="C9" s="4"/>
     </row>
     <row r="10" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="22" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -2108,7 +2104,7 @@
       </c>
       <c r="O10" s="2"/>
       <c r="P10" s="2"/>
-      <c r="W10" s="38" t="s">
+      <c r="W10" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -2157,11 +2153,11 @@
         <v>12</v>
       </c>
       <c r="R12" s="9"/>
-      <c r="S12" s="33" t="s">
+      <c r="S12" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T12" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="T12" s="34" t="s">
-        <v>38</v>
       </c>
       <c r="W12" s="6" t="s">
         <v>5</v>
@@ -2183,7 +2179,7 @@
       <c r="AK12" s="9"/>
     </row>
     <row r="13" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B13" s="28">
+      <c r="B13" s="15">
         <v>10</v>
       </c>
       <c r="C13" s="10">
@@ -2201,7 +2197,7 @@
       <c r="G13" s="10">
         <v>21</v>
       </c>
-      <c r="I13" s="28">
+      <c r="I13" s="15">
         <v>14</v>
       </c>
       <c r="J13" s="11">
@@ -2226,19 +2222,19 @@
         <v>24</v>
       </c>
       <c r="R13" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S13" s="29">
+        <v>35</v>
+      </c>
+      <c r="S13" s="16">
         <v>0.05</v>
       </c>
-      <c r="T13" s="29">
+      <c r="T13" s="16">
         <v>0.25</v>
       </c>
       <c r="U13" s="3" t="s">
         <v>24</v>
       </c>
       <c r="V13" s="3"/>
-      <c r="W13" s="28">
+      <c r="W13" s="15">
         <v>5</v>
       </c>
       <c r="X13" s="10">
@@ -2256,7 +2252,7 @@
       <c r="AB13" s="10">
         <v>21</v>
       </c>
-      <c r="AD13" s="28">
+      <c r="AD13" s="15">
         <v>6</v>
       </c>
       <c r="AE13" s="9"/>
@@ -2285,10 +2281,10 @@
       <c r="R14" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="S14" s="32">
+      <c r="S14" s="19">
         <v>45</v>
       </c>
-      <c r="T14" s="32">
+      <c r="T14" s="19">
         <v>9</v>
       </c>
       <c r="W14" s="6"/>
@@ -2402,7 +2398,7 @@
       </c>
     </row>
     <row r="16" spans="2:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B16" s="28">
+      <c r="B16" s="15">
         <v>10</v>
       </c>
       <c r="C16" s="10">
@@ -2425,7 +2421,7 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="I16" s="28">
+      <c r="I16" s="15">
         <v>14</v>
       </c>
       <c r="J16" s="11">
@@ -2456,13 +2452,13 @@
         <f t="shared" si="1"/>
         <v>48</v>
       </c>
-      <c r="R16" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="S16" s="35"/>
-      <c r="T16" s="35"/>
-      <c r="U16" s="35"/>
-      <c r="W16" s="28">
+      <c r="R16" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="S16" s="25"/>
+      <c r="T16" s="25"/>
+      <c r="U16" s="25"/>
+      <c r="W16" s="15">
         <v>9</v>
       </c>
       <c r="X16" s="10">
@@ -2478,7 +2474,7 @@
         <v>43</v>
       </c>
       <c r="AB16" s="9"/>
-      <c r="AD16" s="28">
+      <c r="AD16" s="15">
         <v>11</v>
       </c>
       <c r="AE16" s="11">
@@ -2502,56 +2498,56 @@
       <c r="AK16" s="9"/>
     </row>
     <row r="17" spans="2:37" ht="10.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="R17" s="35"/>
-      <c r="S17" s="35"/>
-      <c r="T17" s="35"/>
-      <c r="U17" s="35"/>
+      <c r="R17" s="25"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="25"/>
+      <c r="U17" s="25"/>
     </row>
     <row r="18" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B18" s="28">
+      <c r="B18" s="15">
         <f>B13+B16</f>
         <v>20</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D18" s="30"/>
-      <c r="I18" s="28">
+        <v>32</v>
+      </c>
+      <c r="D18" s="17"/>
+      <c r="I18" s="15">
         <f>I13+I16</f>
         <v>28</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
-      </c>
-      <c r="K18" s="31"/>
-      <c r="R18" s="35"/>
-      <c r="S18" s="35"/>
-      <c r="T18" s="35"/>
-      <c r="U18" s="35"/>
-      <c r="W18" s="28">
+        <v>32</v>
+      </c>
+      <c r="K18" s="18"/>
+      <c r="R18" s="25"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="25"/>
+      <c r="U18" s="25"/>
+      <c r="W18" s="15">
         <f>W13+W16</f>
         <v>14</v>
       </c>
       <c r="X18" t="s">
-        <v>33</v>
-      </c>
-      <c r="AD18" s="28">
+        <v>32</v>
+      </c>
+      <c r="AD18" s="15">
         <f>AD13+AD16</f>
         <v>17</v>
       </c>
       <c r="AE18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
-      <c r="T19" s="35"/>
-      <c r="U19" s="35"/>
+      <c r="R19" s="25"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="25"/>
+      <c r="U19" s="25"/>
     </row>
     <row r="20" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B20" s="14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="2:37" x14ac:dyDescent="0.3">
@@ -2561,27 +2557,27 @@
     </row>
     <row r="22" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B22" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="2:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="2:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B24" s="36" t="s">
+      <c r="B24" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W24" s="38" t="s">
+      <c r="W24" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="2:37" ht="11.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="R25" s="9"/>
-      <c r="S25" s="33" t="s">
+      <c r="S25" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="T25" s="21" t="s">
         <v>37</v>
-      </c>
-      <c r="T25" s="34" t="s">
-        <v>38</v>
       </c>
       <c r="U25" s="7"/>
       <c r="V25" s="7"/>
@@ -2590,49 +2586,49 @@
       <c r="B26" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C26" s="22" t="s">
+      <c r="C26" s="26" t="s">
         <v>18</v>
       </c>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="24"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="28"/>
       <c r="I26" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="15" t="s">
+      <c r="J26" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="K26" s="16"/>
-      <c r="L26" s="16"/>
-      <c r="M26" s="16"/>
-      <c r="N26" s="16"/>
-      <c r="O26" s="16"/>
-      <c r="P26" s="17"/>
+      <c r="K26" s="33"/>
+      <c r="L26" s="33"/>
+      <c r="M26" s="33"/>
+      <c r="N26" s="33"/>
+      <c r="O26" s="33"/>
+      <c r="P26" s="34"/>
       <c r="R26" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="S26" s="29">
+        <v>35</v>
+      </c>
+      <c r="S26" s="16">
         <v>0.2</v>
       </c>
-      <c r="T26" s="29">
+      <c r="T26" s="16">
         <v>0.35</v>
       </c>
     </row>
     <row r="27" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B27" s="6"/>
-      <c r="C27" s="25"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="26"/>
-      <c r="G27" s="27"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="19"/>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="20"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="31"/>
+      <c r="J27" s="35"/>
+      <c r="K27" s="36"/>
+      <c r="L27" s="36"/>
+      <c r="M27" s="36"/>
+      <c r="N27" s="36"/>
+      <c r="O27" s="36"/>
+      <c r="P27" s="37"/>
       <c r="R27" s="10" t="s">
         <v>0</v>
       </c>
@@ -2663,135 +2659,135 @@
       <c r="B29" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C29" s="22" t="s">
+      <c r="C29" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="24"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="28"/>
       <c r="I29" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="K29" s="16"/>
-      <c r="L29" s="16"/>
-      <c r="M29" s="16"/>
-      <c r="N29" s="16"/>
-      <c r="O29" s="16"/>
-      <c r="P29" s="17"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="33"/>
+      <c r="N29" s="33"/>
+      <c r="O29" s="33"/>
+      <c r="P29" s="34"/>
       <c r="R29" s="6"/>
     </row>
     <row r="30" spans="2:37" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B30" s="6"/>
-      <c r="C30" s="25"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="27"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="19"/>
-      <c r="L30" s="19"/>
-      <c r="M30" s="19"/>
-      <c r="N30" s="19"/>
-      <c r="O30" s="19"/>
-      <c r="P30" s="20"/>
-      <c r="R30" s="35" t="s">
-        <v>42</v>
-      </c>
-      <c r="S30" s="35"/>
-      <c r="T30" s="35"/>
-      <c r="U30" s="35"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="31"/>
+      <c r="J30" s="35"/>
+      <c r="K30" s="36"/>
+      <c r="L30" s="36"/>
+      <c r="M30" s="36"/>
+      <c r="N30" s="36"/>
+      <c r="O30" s="36"/>
+      <c r="P30" s="37"/>
+      <c r="R30" s="25" t="s">
+        <v>41</v>
+      </c>
+      <c r="S30" s="25"/>
+      <c r="T30" s="25"/>
+      <c r="U30" s="25"/>
     </row>
     <row r="31" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="R31" s="35"/>
-      <c r="S31" s="35"/>
-      <c r="T31" s="35"/>
-      <c r="U31" s="35"/>
+      <c r="R31" s="25"/>
+      <c r="S31" s="25"/>
+      <c r="T31" s="25"/>
+      <c r="U31" s="25"/>
     </row>
     <row r="32" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="C32" s="22" t="s">
+      <c r="C32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="D32" s="23"/>
-      <c r="E32" s="23"/>
-      <c r="F32" s="23"/>
-      <c r="G32" s="24"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
       <c r="I32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="K32" s="16"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="16"/>
-      <c r="N32" s="16"/>
-      <c r="O32" s="16"/>
-      <c r="P32" s="17"/>
-      <c r="R32" s="35"/>
-      <c r="S32" s="35"/>
-      <c r="T32" s="35"/>
-      <c r="U32" s="35"/>
+      <c r="K32" s="33"/>
+      <c r="L32" s="33"/>
+      <c r="M32" s="33"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="34"/>
+      <c r="R32" s="25"/>
+      <c r="S32" s="25"/>
+      <c r="T32" s="25"/>
+      <c r="U32" s="25"/>
       <c r="W32" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="X32" s="22" t="s">
+      <c r="X32" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="Y32" s="23"/>
-      <c r="Z32" s="23"/>
-      <c r="AA32" s="23"/>
-      <c r="AB32" s="24"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="28"/>
       <c r="AD32" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AE32" s="15" t="s">
+      <c r="AE32" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="16"/>
-      <c r="AK32" s="17"/>
+      <c r="AF32" s="33"/>
+      <c r="AG32" s="33"/>
+      <c r="AH32" s="33"/>
+      <c r="AI32" s="33"/>
+      <c r="AJ32" s="33"/>
+      <c r="AK32" s="34"/>
     </row>
     <row r="33" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B33" s="6"/>
-      <c r="C33" s="25"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="27"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="19"/>
-      <c r="L33" s="19"/>
-      <c r="M33" s="19"/>
-      <c r="N33" s="19"/>
-      <c r="O33" s="19"/>
-      <c r="P33" s="20"/>
-      <c r="R33" s="35"/>
-      <c r="S33" s="35"/>
-      <c r="T33" s="35"/>
-      <c r="U33" s="35"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="30"/>
+      <c r="F33" s="30"/>
+      <c r="G33" s="31"/>
+      <c r="J33" s="35"/>
+      <c r="K33" s="36"/>
+      <c r="L33" s="36"/>
+      <c r="M33" s="36"/>
+      <c r="N33" s="36"/>
+      <c r="O33" s="36"/>
+      <c r="P33" s="37"/>
+      <c r="R33" s="25"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="25"/>
+      <c r="U33" s="25"/>
       <c r="W33" s="6"/>
-      <c r="X33" s="25"/>
-      <c r="Y33" s="26"/>
-      <c r="Z33" s="26"/>
-      <c r="AA33" s="26"/>
-      <c r="AB33" s="27"/>
-      <c r="AE33" s="18"/>
-      <c r="AF33" s="19"/>
-      <c r="AG33" s="19"/>
-      <c r="AH33" s="19"/>
-      <c r="AI33" s="19"/>
-      <c r="AJ33" s="19"/>
-      <c r="AK33" s="20"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="30"/>
+      <c r="AA33" s="30"/>
+      <c r="AB33" s="31"/>
+      <c r="AE33" s="35"/>
+      <c r="AF33" s="36"/>
+      <c r="AG33" s="36"/>
+      <c r="AH33" s="36"/>
+      <c r="AI33" s="36"/>
+      <c r="AJ33" s="36"/>
+      <c r="AK33" s="37"/>
     </row>
     <row r="34" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B34" s="6"/>
@@ -2801,147 +2797,147 @@
       <c r="B35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C35" s="22" t="s">
+      <c r="C35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="D35" s="23"/>
-      <c r="E35" s="23"/>
-      <c r="F35" s="23"/>
-      <c r="G35" s="24"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="28"/>
       <c r="I35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J35" s="15" t="s">
+      <c r="J35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="K35" s="16"/>
-      <c r="L35" s="16"/>
-      <c r="M35" s="16"/>
-      <c r="N35" s="16"/>
-      <c r="O35" s="16"/>
-      <c r="P35" s="17"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="33"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="33"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="34"/>
       <c r="W35" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="X35" s="22" t="s">
+      <c r="X35" s="26" t="s">
         <v>21</v>
       </c>
-      <c r="Y35" s="23"/>
-      <c r="Z35" s="23"/>
-      <c r="AA35" s="23"/>
-      <c r="AB35" s="24"/>
+      <c r="Y35" s="27"/>
+      <c r="Z35" s="27"/>
+      <c r="AA35" s="27"/>
+      <c r="AB35" s="28"/>
       <c r="AD35" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="AE35" s="15" t="s">
+      <c r="AE35" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="16"/>
-      <c r="AK35" s="17"/>
+      <c r="AF35" s="33"/>
+      <c r="AG35" s="33"/>
+      <c r="AH35" s="33"/>
+      <c r="AI35" s="33"/>
+      <c r="AJ35" s="33"/>
+      <c r="AK35" s="34"/>
     </row>
     <row r="36" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="C36" s="25"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="19"/>
-      <c r="L36" s="19"/>
-      <c r="M36" s="19"/>
-      <c r="N36" s="19"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="X36" s="25"/>
-      <c r="Y36" s="26"/>
-      <c r="Z36" s="26"/>
-      <c r="AA36" s="26"/>
-      <c r="AB36" s="27"/>
-      <c r="AE36" s="18"/>
-      <c r="AF36" s="19"/>
-      <c r="AG36" s="19"/>
-      <c r="AH36" s="19"/>
-      <c r="AI36" s="19"/>
-      <c r="AJ36" s="19"/>
-      <c r="AK36" s="20"/>
+      <c r="C36" s="29"/>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
+      <c r="F36" s="30"/>
+      <c r="G36" s="31"/>
+      <c r="J36" s="35"/>
+      <c r="K36" s="36"/>
+      <c r="L36" s="36"/>
+      <c r="M36" s="36"/>
+      <c r="N36" s="36"/>
+      <c r="O36" s="36"/>
+      <c r="P36" s="37"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="30"/>
+      <c r="Z36" s="30"/>
+      <c r="AA36" s="30"/>
+      <c r="AB36" s="31"/>
+      <c r="AE36" s="35"/>
+      <c r="AF36" s="36"/>
+      <c r="AG36" s="36"/>
+      <c r="AH36" s="36"/>
+      <c r="AI36" s="36"/>
+      <c r="AJ36" s="36"/>
+      <c r="AK36" s="37"/>
     </row>
     <row r="38" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C38" s="22" t="s">
+      <c r="C38" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="D38" s="23"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="24"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="28"/>
       <c r="I38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="15" t="s">
+      <c r="J38" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="K38" s="16"/>
-      <c r="L38" s="16"/>
-      <c r="M38" s="16"/>
-      <c r="N38" s="16"/>
-      <c r="O38" s="16"/>
-      <c r="P38" s="17"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="33"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="33"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="34"/>
       <c r="W38" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="X38" s="22" t="s">
+      <c r="X38" s="26" t="s">
         <v>22</v>
       </c>
-      <c r="Y38" s="23"/>
-      <c r="Z38" s="23"/>
-      <c r="AA38" s="23"/>
-      <c r="AB38" s="24"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AB38" s="28"/>
       <c r="AD38" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="AE38" s="15" t="s">
+      <c r="AE38" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="16"/>
-      <c r="AK38" s="17"/>
+      <c r="AF38" s="33"/>
+      <c r="AG38" s="33"/>
+      <c r="AH38" s="33"/>
+      <c r="AI38" s="33"/>
+      <c r="AJ38" s="33"/>
+      <c r="AK38" s="34"/>
     </row>
     <row r="39" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B39" s="6"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="26"/>
-      <c r="G39" s="27"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
-      <c r="O39" s="19"/>
-      <c r="P39" s="20"/>
+      <c r="C39" s="29"/>
+      <c r="D39" s="30"/>
+      <c r="E39" s="30"/>
+      <c r="F39" s="30"/>
+      <c r="G39" s="31"/>
+      <c r="J39" s="35"/>
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="36"/>
+      <c r="N39" s="36"/>
+      <c r="O39" s="36"/>
+      <c r="P39" s="37"/>
       <c r="W39" s="6"/>
-      <c r="X39" s="25"/>
-      <c r="Y39" s="26"/>
-      <c r="Z39" s="26"/>
-      <c r="AA39" s="26"/>
-      <c r="AB39" s="27"/>
-      <c r="AE39" s="18"/>
-      <c r="AF39" s="19"/>
-      <c r="AG39" s="19"/>
-      <c r="AH39" s="19"/>
-      <c r="AI39" s="19"/>
-      <c r="AJ39" s="19"/>
-      <c r="AK39" s="20"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="30"/>
+      <c r="AA39" s="30"/>
+      <c r="AB39" s="31"/>
+      <c r="AE39" s="35"/>
+      <c r="AF39" s="36"/>
+      <c r="AG39" s="36"/>
+      <c r="AH39" s="36"/>
+      <c r="AI39" s="36"/>
+      <c r="AJ39" s="36"/>
+      <c r="AK39" s="37"/>
     </row>
     <row r="40" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B40" s="6"/>
@@ -2951,47 +2947,47 @@
       <c r="B41" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="C41" s="22" t="s">
+      <c r="C41" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="D41" s="23"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="24"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="28"/>
       <c r="I41" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="J41" s="15" t="s">
+      <c r="J41" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="K41" s="16"/>
-      <c r="L41" s="16"/>
-      <c r="M41" s="16"/>
-      <c r="N41" s="16"/>
-      <c r="O41" s="16"/>
-      <c r="P41" s="17"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="33"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="33"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="34"/>
     </row>
     <row r="42" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="C42" s="25"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="26"/>
-      <c r="G42" s="27"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
-      <c r="O42" s="19"/>
-      <c r="P42" s="20"/>
+      <c r="C42" s="29"/>
+      <c r="D42" s="30"/>
+      <c r="E42" s="30"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="31"/>
+      <c r="J42" s="35"/>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="36"/>
+      <c r="N42" s="36"/>
+      <c r="O42" s="36"/>
+      <c r="P42" s="37"/>
     </row>
     <row r="44" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="C44" s="21"/>
-      <c r="D44" s="21"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
     </row>
     <row r="45" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B45" s="14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="2:37" x14ac:dyDescent="0.3">
@@ -3001,19 +2997,19 @@
     </row>
     <row r="47" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B47" s="13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="48" spans="2:37" x14ac:dyDescent="0.3">
       <c r="B48" s="13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B49" s="36" t="s">
+      <c r="B49" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="W49" s="38" t="s">
+      <c r="W49" s="23" t="s">
         <v>4</v>
       </c>
     </row>
@@ -3100,7 +3096,7 @@
       </c>
     </row>
     <row r="52" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B52" s="28">
+      <c r="B52" s="15">
         <v>10</v>
       </c>
       <c r="C52" s="10">
@@ -3118,7 +3114,7 @@
       <c r="G52" s="10">
         <v>21</v>
       </c>
-      <c r="I52" s="28">
+      <c r="I52" s="15">
         <v>14</v>
       </c>
       <c r="J52" s="11">
@@ -3142,17 +3138,17 @@
       <c r="P52" s="11">
         <v>24</v>
       </c>
-      <c r="S52" s="29">
+      <c r="S52" s="16">
         <v>0.05</v>
       </c>
-      <c r="T52" s="29">
+      <c r="T52" s="16">
         <v>0.25</v>
       </c>
       <c r="U52" s="3" t="s">
         <v>24</v>
       </c>
       <c r="V52" s="3"/>
-      <c r="W52" s="28">
+      <c r="W52" s="15">
         <v>5</v>
       </c>
       <c r="X52" s="10">
@@ -3170,7 +3166,7 @@
       <c r="AB52" s="10">
         <v>21</v>
       </c>
-      <c r="AD52" s="28">
+      <c r="AD52" s="15">
         <v>6</v>
       </c>
       <c r="AE52" s="11">
@@ -3201,9 +3197,7 @@
       <c r="R53" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="S53" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="S53" s="9"/>
       <c r="T53" s="9">
         <v>3</v>
       </c>
@@ -3268,10 +3262,8 @@
       <c r="R54" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="S54" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="T54" s="29">
+      <c r="S54" s="16"/>
+      <c r="T54" s="9">
         <v>27</v>
       </c>
       <c r="W54" s="6" t="s">
@@ -3308,7 +3300,7 @@
       </c>
     </row>
     <row r="55" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B55" s="28">
+      <c r="B55" s="15">
         <v>10</v>
       </c>
       <c r="C55" s="10">
@@ -3331,7 +3323,7 @@
         <f t="shared" si="4"/>
         <v>45</v>
       </c>
-      <c r="I55" s="28">
+      <c r="I55" s="15">
         <v>14</v>
       </c>
       <c r="J55" s="11">
@@ -3365,13 +3357,11 @@
       <c r="R55" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="S55" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="S55" s="9"/>
       <c r="T55" s="9">
         <v>6</v>
       </c>
-      <c r="W55" s="28">
+      <c r="W55" s="15">
         <v>9</v>
       </c>
       <c r="X55" s="10">
@@ -3389,7 +3379,7 @@
       <c r="AB55" s="10">
         <v>45</v>
       </c>
-      <c r="AD55" s="28">
+      <c r="AD55" s="15">
         <v>11</v>
       </c>
       <c r="AE55" s="11">
@@ -3418,54 +3408,61 @@
       <c r="R56" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="S56" s="9" t="s">
-        <v>28</v>
-      </c>
+      <c r="S56" s="9"/>
       <c r="T56" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="57" spans="2:37" x14ac:dyDescent="0.3">
-      <c r="B57" s="28">
+      <c r="B57" s="15">
         <f>B52+B55</f>
         <v>20</v>
       </c>
-      <c r="C57" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="D57" s="37"/>
-      <c r="E57" s="37"/>
-      <c r="I57" s="28">
+      <c r="C57" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="I57" s="15">
         <f>I52+I55</f>
         <v>28</v>
       </c>
-      <c r="J57" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="K57" s="37"/>
-      <c r="L57" s="37"/>
+      <c r="J57" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="K57" s="24"/>
+      <c r="L57" s="24"/>
       <c r="T57" s="12"/>
-      <c r="W57" s="28">
+      <c r="W57" s="15">
         <f>W52+W55</f>
         <v>14</v>
       </c>
-      <c r="X57" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y57" s="37"/>
-      <c r="Z57" s="37"/>
-      <c r="AD57" s="28">
+      <c r="X57" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y57" s="24"/>
+      <c r="Z57" s="24"/>
+      <c r="AD57" s="15">
         <f>AD52+AD55</f>
         <v>17</v>
       </c>
-      <c r="AE57" s="37" t="s">
-        <v>32</v>
-      </c>
-      <c r="AF57" s="37"/>
-      <c r="AG57" s="37"/>
+      <c r="AE57" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="AF57" s="24"/>
+      <c r="AG57" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C35:G36"/>
+    <mergeCell ref="C38:G39"/>
+    <mergeCell ref="C41:G42"/>
+    <mergeCell ref="J41:P42"/>
+    <mergeCell ref="X32:AB33"/>
+    <mergeCell ref="AE32:AK33"/>
+    <mergeCell ref="X35:AB36"/>
+    <mergeCell ref="AE35:AK36"/>
+    <mergeCell ref="X38:AB39"/>
     <mergeCell ref="X57:Z57"/>
     <mergeCell ref="AE57:AG57"/>
     <mergeCell ref="R16:U19"/>
@@ -3482,15 +3479,6 @@
     <mergeCell ref="J38:P39"/>
     <mergeCell ref="AE38:AK39"/>
     <mergeCell ref="C44:D44"/>
-    <mergeCell ref="X32:AB33"/>
-    <mergeCell ref="AE32:AK33"/>
-    <mergeCell ref="X35:AB36"/>
-    <mergeCell ref="AE35:AK36"/>
-    <mergeCell ref="X38:AB39"/>
-    <mergeCell ref="C35:G36"/>
-    <mergeCell ref="C38:G39"/>
-    <mergeCell ref="C41:G42"/>
-    <mergeCell ref="J41:P42"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
